--- a/biology/Zoologie/Esquimau_américain/Esquimau_américain.xlsx
+++ b/biology/Zoologie/Esquimau_américain/Esquimau_américain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esquimau_am%C3%A9ricain</t>
+          <t>Esquimau_américain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'esquimau américain (American Eskimo Dog) est une race de chien de compagnie originaire du Nord de l’Europe. Proche du type spitz, il descend du spitz allemand, ayant été renommé à la période de la Première Guerre mondiale par hostilité germanique, et conserve une certaine ressemblance avec le spitz japonais et le samoyède. Un chien spitz ou esquimau américain de l'âge de 2 ans peut aller jusqu'à 5 kg, pour un poids normal.
-Le Kennel Club Américain reconnaît la race depuis 1994[1]. et a fixé le standard actuel cependant le United Kennel Club a reconnu la race avant le Kennel Club Américain et il n'y a pas de différences de standard mis en place par les deux Kennels, l'esquimau américain a été reconnu comme chien de race dans le Kennel Club Canadien (CKC) depuis mars 2006[2].
+Le Kennel Club Américain reconnaît la race depuis 1994. et a fixé le standard actuel cependant le United Kennel Club a reconnu la race avant le Kennel Club Américain et il n'y a pas de différences de standard mis en place par les deux Kennels, l'esquimau américain a été reconnu comme chien de race dans le Kennel Club Canadien (CKC) depuis mars 2006.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esquimau_am%C3%A9ricain</t>
+          <t>Esquimau_américain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'esquimau américain résulte de croisements entre le spitz allemand (notamment le spitz-loup) et le spitz japonais. Cette race n'est pas reconnue par la fédération cynologique internationale.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esquimau_am%C3%A9ricain</t>
+          <t>Esquimau_américain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Esquimau_am%C3%A9ricain</t>
+          <t>Esquimau_américain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +586,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Esquimau américain est un chien très expressif, à tendance aboyeur, plutôt indépendant. Son caractère dépendra en partie de facteurs génétiques inhérents à la race et en partie de son éducation. il a besoin d'un toilettage régulier, de nourriture mesurée et il faut le dissuader d'aboyer.
 </t>
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esquimau_am%C3%A9ricain</t>
+          <t>Esquimau_américain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,6 +620,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
